--- a/1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD/validatie_matrix/Kopie van 20201005_1057 - Validatiematrix 1.1conceptversie.xlsx
+++ b/1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD/validatie_matrix/Kopie van 20201005_1057 - Validatiematrix 1.1conceptversie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD\validatie_matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75541A90-0B1C-42DB-B0A4-1D3FAEC8B494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC053651-19DF-4970-B93F-E397AFE356C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3743,7 +3743,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3854,6 +3854,12 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 2" xfId="4" xr:uid="{0EC6E668-CD22-429A-B10D-9E4834C96B63}"/>
@@ -3862,7 +3868,17 @@
     <cellStyle name="Standaard 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -5000,8 +5016,8 @@
   <dimension ref="A1:M550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5877,7 +5893,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="A22" s="36">
         <v>4</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -5918,7 +5934,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="36">
         <v>4</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -5959,7 +5975,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="A24" s="36">
         <v>4</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -6000,7 +6016,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+      <c r="A25" s="36">
         <v>4</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -6041,7 +6057,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+      <c r="A26" s="36">
         <v>4</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6082,7 +6098,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30">
+      <c r="A27" s="35">
         <v>4</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -6123,7 +6139,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30">
+      <c r="A28" s="35">
         <v>4</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -6164,7 +6180,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30">
+      <c r="A29" s="35">
         <v>4</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -6205,7 +6221,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30">
+      <c r="A30" s="35">
         <v>4</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -6246,7 +6262,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30">
+      <c r="A31" s="35">
         <v>4</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -6287,7 +6303,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30">
+      <c r="A32" s="35">
         <v>4</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -6328,7 +6344,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30">
+      <c r="A33" s="35">
         <v>4</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -6369,7 +6385,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30">
+      <c r="A34" s="35">
         <v>4</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -6410,7 +6426,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30">
+      <c r="A35" s="35">
         <v>4</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -6451,7 +6467,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30">
+      <c r="A36" s="35">
         <v>4</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -6574,7 +6590,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30">
+      <c r="A39" s="35">
         <v>1</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -6615,7 +6631,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30">
+      <c r="A40" s="35">
         <v>1</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -6697,7 +6713,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="30">
+      <c r="A42" s="35">
         <v>1</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -6738,7 +6754,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30">
+      <c r="A43" s="35">
         <v>1</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -6779,7 +6795,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="30">
+      <c r="A44" s="35">
         <v>1</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -6902,7 +6918,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="30">
+      <c r="A47" s="35">
         <v>1</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -6943,7 +6959,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="30">
+      <c r="A48" s="35">
         <v>1</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -6984,7 +7000,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="30">
+      <c r="A49" s="35">
         <v>1</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -7025,7 +7041,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="30">
+      <c r="A50" s="35">
         <v>1</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -7066,7 +7082,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30">
+      <c r="A51" s="35">
         <v>1</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -7107,7 +7123,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="30">
+      <c r="A52" s="35">
         <v>1</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -7148,7 +7164,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="30">
+      <c r="A53" s="35">
         <v>1</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -7189,7 +7205,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="30">
+      <c r="A54" s="35">
         <v>1</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -7230,7 +7246,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="30">
+      <c r="A55" s="35">
         <v>1</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -7271,7 +7287,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30">
+      <c r="A56" s="35">
         <v>1</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -7312,7 +7328,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="30">
+      <c r="A57" s="35">
         <v>1</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -7353,7 +7369,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20">
+      <c r="A58" s="36">
         <v>1</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -7394,7 +7410,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20">
+      <c r="A59" s="36">
         <v>1</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -7435,7 +7451,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="20">
+      <c r="A60" s="36">
         <v>1</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -7476,7 +7492,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20">
+      <c r="A61" s="36">
         <v>1</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -7517,7 +7533,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29">
+      <c r="A62" s="37">
         <v>2</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -7558,7 +7574,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
+      <c r="A63" s="38">
         <v>2</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -7599,7 +7615,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="38">
         <v>2</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -7640,7 +7656,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="22">
+      <c r="A65" s="38">
         <v>2</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -7681,7 +7697,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
+      <c r="A66" s="38">
         <v>2</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -7722,7 +7738,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="22">
+      <c r="A67" s="38">
         <v>2</v>
       </c>
       <c r="B67" s="20" t="s">
@@ -24245,7 +24261,7 @@
       </c>
     </row>
     <row r="470" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="29">
+      <c r="A470" s="37">
         <v>4</v>
       </c>
       <c r="B470" s="16" t="s">
@@ -27573,377 +27589,377 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E243:E247 F251:F284 G251:M272 E251:E258 B87:B98 F2:F24 A2:B32 A33:A35 E273:E284 E230:E241 E139 E178:E180 E176 E174 E171:E172 E163:E166 E168:E169 E159:E161 E155:E156 E150:E152 E145:E148 E141:E143 E200:F200 D327:E327 F139:K185 A1:K1 G276:M284 F230:M247 D321:M322 L337:M344 A36:B48 A52:B62 L1:M32 A81:B86 A104:B120 L89:M98 A121:A135 G121:M135 F104:F135 L104:M135 A80 A64:B79 A63 A49:A51 L138:M185 F138 A138 L36:M44 L46:M48 L52:M62 L64:M75 L77:M79 L81:M87 F27:F44 F46:F48 F52:F62 F64:F75 F77:F79 F81:F98 L374:M443 A400:A550 F375:F550 L447:M550">
-    <cfRule type="containsText" dxfId="76" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206:A214 A139:A204">
-    <cfRule type="containsText" dxfId="75" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E270:E272">
-    <cfRule type="containsText" dxfId="74" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G199:M199">
-    <cfRule type="containsText" dxfId="73" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G199)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L321:M322">
-    <cfRule type="containsText" dxfId="72" priority="218" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="218" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L321)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G322:K322">
-    <cfRule type="containsText" dxfId="71" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F322:K322">
-    <cfRule type="containsText" dxfId="70" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L322:M322">
-    <cfRule type="containsText" dxfId="69" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G321:K321">
-    <cfRule type="containsText" dxfId="68" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G321)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F321:K321">
-    <cfRule type="containsText" dxfId="67" priority="212" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="212" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F321)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L321:M321">
-    <cfRule type="containsText" dxfId="66" priority="210" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="210" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L321)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E242">
-    <cfRule type="containsText" dxfId="65" priority="209" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="209" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E242)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E259:E269">
-    <cfRule type="containsText" dxfId="64" priority="208" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="208" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G273:M274">
-    <cfRule type="containsText" dxfId="63" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L333">
-    <cfRule type="containsText" dxfId="62" priority="176" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="176" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L333)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G327:M327">
-    <cfRule type="containsText" dxfId="61" priority="202" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="202" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G327)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F327">
-    <cfRule type="containsText" dxfId="60" priority="203" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="203" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F327)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F342:F344">
-    <cfRule type="containsText" dxfId="59" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A335">
-    <cfRule type="containsText" dxfId="58" priority="193" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="193" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A335)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F335:F341">
-    <cfRule type="containsText" dxfId="57" priority="181" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="181" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F335)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F333">
-    <cfRule type="containsText" dxfId="56" priority="180" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="180" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F333)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="55" priority="179" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="179" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L335">
-    <cfRule type="containsText" dxfId="54" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L335)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M333">
-    <cfRule type="containsText" dxfId="53" priority="174" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="174" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M333)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A333:A334">
-    <cfRule type="containsText" dxfId="52" priority="192" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="192" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A333)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M335">
-    <cfRule type="containsText" dxfId="51" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M335)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L336">
-    <cfRule type="containsText" dxfId="50" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L336)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M336">
-    <cfRule type="containsText" dxfId="49" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M336)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L334">
-    <cfRule type="containsText" dxfId="48" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M334">
-    <cfRule type="containsText" dxfId="47" priority="170" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="170" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F26">
-    <cfRule type="containsText" dxfId="46" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G275:M275">
-    <cfRule type="containsText" dxfId="45" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N248:W250">
-    <cfRule type="containsText" dxfId="44" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D248:E250">
-    <cfRule type="containsText" dxfId="43" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248:G250">
-    <cfRule type="containsText" dxfId="42" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H248:H250">
-    <cfRule type="containsText" dxfId="41" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I248:I250">
-    <cfRule type="containsText" dxfId="40" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J248:J250">
-    <cfRule type="containsText" dxfId="39" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K248:K250">
-    <cfRule type="containsText" dxfId="38" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L248:L250">
-    <cfRule type="containsText" dxfId="37" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M248:M250">
-    <cfRule type="containsText" dxfId="36" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N285:W285">
-    <cfRule type="containsText" dxfId="35" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E285">
-    <cfRule type="containsText" dxfId="34" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="containsText" dxfId="33" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I285">
-    <cfRule type="containsText" dxfId="32" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J285">
-    <cfRule type="containsText" dxfId="31" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K285">
-    <cfRule type="containsText" dxfId="30" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L285">
-    <cfRule type="containsText" dxfId="29" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M285">
-    <cfRule type="containsText" dxfId="28" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A375:A383">
-    <cfRule type="containsText" dxfId="27" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A375)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A328:A332">
-    <cfRule type="containsText" dxfId="26" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A328)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A384">
-    <cfRule type="containsText" dxfId="25" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A384)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:A103">
-    <cfRule type="containsText" dxfId="24" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215 A205">
-    <cfRule type="containsText" dxfId="23" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A336:A344">
-    <cfRule type="containsText" dxfId="22" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A336)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A216:A229">
-    <cfRule type="containsText" dxfId="21" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A385:A399">
-    <cfRule type="containsText" dxfId="20" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A385)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="19" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A327">
-    <cfRule type="containsText" dxfId="18" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A327)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A326">
-    <cfRule type="containsText" dxfId="17" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A326)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305:A325 A230:A303">
-    <cfRule type="containsText" dxfId="16" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A230)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374">
-    <cfRule type="containsText" dxfId="15" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A345:A374">
-    <cfRule type="containsText" dxfId="14" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B35">
-    <cfRule type="containsText" dxfId="13" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D285">
-    <cfRule type="containsText" dxfId="12" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L88:M88">
-    <cfRule type="containsText" dxfId="11" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:C63">
-    <cfRule type="containsText" dxfId="10" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:C80">
-    <cfRule type="containsText" dxfId="9" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:C103">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99:F103 L99:M103">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:A137">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136:F137">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G136:M137">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L328:M332 L323:M326 L315:M320 L296:M304 L80:M80 L76:M76 L63:M63 L49:M51 L45:M45 L33:M35">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L444:M446">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L444)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28274,12 +28290,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD/validatie_matrix/Kopie van 20201005_1057 - Validatiematrix 1.1conceptversie.xlsx
+++ b/1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD/validatie_matrix/Kopie van 20201005_1057 - Validatiematrix 1.1conceptversie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0_ow-1.0.3_op-Validatie-_en_conformiteitsregels_TPOD\validatie_matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5184AF-125E-4671-B633-9BE0070125CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F1B6B0-3CB0-4DC3-BD1C-979D6FBA7E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3599,7 +3599,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3627,6 +3627,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D5A3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3755,7 +3761,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3854,9 +3860,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3888,6 +3891,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4683,6 +4704,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD0D5A3"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -5046,8 +5068,8 @@
   <dimension ref="A1:M550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5103,7 +5125,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="A2" s="49">
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -5144,7 +5166,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26">
+      <c r="A3" s="49">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -5185,7 +5207,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+      <c r="A4" s="49">
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5226,7 +5248,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="49">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -5267,7 +5289,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+      <c r="A6" s="49">
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5308,7 +5330,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+      <c r="A7" s="49">
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -5349,7 +5371,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+      <c r="A8" s="49">
         <v>2</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -5882,7 +5904,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36">
+      <c r="A21" s="35">
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -5923,7 +5945,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36">
+      <c r="A22" s="35">
         <v>4</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -5964,7 +5986,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
+      <c r="A23" s="35">
         <v>4</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -6005,7 +6027,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36">
+      <c r="A24" s="35">
         <v>4</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -6046,7 +6068,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36">
+      <c r="A25" s="35">
         <v>4</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -6087,7 +6109,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36">
+      <c r="A26" s="35">
         <v>4</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6128,7 +6150,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35">
+      <c r="A27" s="34">
         <v>4</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -6169,7 +6191,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
+      <c r="A28" s="34">
         <v>4</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -6210,7 +6232,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35">
+      <c r="A29" s="34">
         <v>4</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -6251,7 +6273,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40">
+      <c r="A30" s="39">
         <v>4</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -6292,7 +6314,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
+      <c r="A31" s="34">
         <v>4</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -6333,7 +6355,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35">
+      <c r="A32" s="34">
         <v>4</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -6374,7 +6396,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40">
+      <c r="A33" s="39">
         <v>4</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -6415,7 +6437,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35">
+      <c r="A34" s="34">
         <v>4</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -6456,7 +6478,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40">
+      <c r="A35" s="39">
         <v>4</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -6497,7 +6519,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40">
+      <c r="A36" s="39">
         <v>4</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -6538,7 +6560,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35">
+      <c r="A37" s="34">
         <v>1</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -6579,7 +6601,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35">
+      <c r="A38" s="34">
         <v>1</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -6620,7 +6642,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35">
+      <c r="A39" s="34">
         <v>1</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -6661,7 +6683,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35">
+      <c r="A40" s="34">
         <v>1</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -6702,7 +6724,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35">
+      <c r="A41" s="34">
         <v>1</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -6743,7 +6765,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40">
+      <c r="A42" s="39">
         <v>1</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -6784,7 +6806,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35">
+      <c r="A43" s="34">
         <v>1</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -6825,7 +6847,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35">
+      <c r="A44" s="34">
         <v>1</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -6866,7 +6888,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="35">
+      <c r="A45" s="34">
         <v>1</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -6907,7 +6929,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="35">
+      <c r="A46" s="34">
         <v>1</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -6948,7 +6970,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35">
+      <c r="A47" s="34">
         <v>1</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -6989,7 +7011,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="35">
+      <c r="A48" s="34">
         <v>1</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -7030,7 +7052,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
+      <c r="A49" s="34">
         <v>1</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -7071,7 +7093,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+      <c r="A50" s="34">
         <v>1</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -7112,7 +7134,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
+      <c r="A51" s="34">
         <v>1</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -7153,7 +7175,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
+      <c r="A52" s="34">
         <v>1</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -7194,7 +7216,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
+      <c r="A53" s="34">
         <v>1</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -7235,7 +7257,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="35">
+      <c r="A54" s="34">
         <v>1</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -7276,7 +7298,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35">
+      <c r="A55" s="34">
         <v>1</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -7317,7 +7339,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="35">
+      <c r="A56" s="34">
         <v>1</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -7358,7 +7380,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35">
+      <c r="A57" s="34">
         <v>1</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -7399,7 +7421,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="36">
+      <c r="A58" s="35">
         <v>1</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -7440,7 +7462,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="36">
+      <c r="A59" s="35">
         <v>1</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -7481,7 +7503,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="36">
+      <c r="A60" s="35">
         <v>1</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -7522,7 +7544,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="36">
+      <c r="A61" s="35">
         <v>1</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -7563,7 +7585,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="37">
+      <c r="A62" s="36">
         <v>2</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -7604,7 +7626,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="38">
+      <c r="A63" s="37">
         <v>2</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -7645,7 +7667,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="38">
+      <c r="A64" s="37">
         <v>2</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -7686,7 +7708,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="39">
+      <c r="A65" s="38">
         <v>2</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -7727,7 +7749,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="39">
+      <c r="A66" s="38">
         <v>2</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -7768,7 +7790,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="39">
+      <c r="A67" s="38">
         <v>2</v>
       </c>
       <c r="B67" s="20" t="s">
@@ -7809,7 +7831,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="38">
+      <c r="A68" s="37">
         <v>2</v>
       </c>
       <c r="B68" s="20" t="s">
@@ -7850,7 +7872,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="38">
+      <c r="A69" s="37">
         <v>2</v>
       </c>
       <c r="B69" s="20" t="s">
@@ -7891,7 +7913,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="39">
+      <c r="A70" s="38">
         <v>2</v>
       </c>
       <c r="B70" s="20" t="s">
@@ -7932,7 +7954,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="39">
+      <c r="A71" s="38">
         <v>2</v>
       </c>
       <c r="B71" s="20" t="s">
@@ -7973,7 +7995,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="39">
+      <c r="A72" s="38">
         <v>2</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -8014,7 +8036,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="39">
+      <c r="A73" s="38">
         <v>2</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -8055,7 +8077,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="39">
+      <c r="A74" s="38">
         <v>2</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -8096,7 +8118,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="39">
+      <c r="A75" s="38">
         <v>2</v>
       </c>
       <c r="B75" s="20" t="s">
@@ -8137,7 +8159,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="39">
+      <c r="A76" s="38">
         <v>2</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -8178,7 +8200,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="39">
+      <c r="A77" s="38">
         <v>2</v>
       </c>
       <c r="B77" s="20" t="s">
@@ -8219,7 +8241,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>2</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -8260,7 +8282,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39">
+      <c r="A79" s="38">
         <v>2</v>
       </c>
       <c r="B79" s="20" t="s">
@@ -8301,7 +8323,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>2</v>
       </c>
       <c r="B80" s="20" t="s">
@@ -8342,7 +8364,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="41">
+      <c r="A81" s="40">
         <v>2</v>
       </c>
       <c r="B81" s="20" t="s">
@@ -8383,7 +8405,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="42">
+      <c r="A82" s="41">
         <v>2</v>
       </c>
       <c r="B82" s="20" t="s">
@@ -8424,7 +8446,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="41">
+      <c r="A83" s="40">
         <v>2</v>
       </c>
       <c r="B83" s="20" t="s">
@@ -8465,7 +8487,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="42">
+      <c r="A84" s="41">
         <v>2</v>
       </c>
       <c r="B84" s="16" t="s">
@@ -8506,7 +8528,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="42">
+      <c r="A85" s="41">
         <v>2</v>
       </c>
       <c r="B85" s="16" t="s">
@@ -8547,7 +8569,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="42">
+      <c r="A86" s="41">
         <v>2</v>
       </c>
       <c r="B86" s="16" t="s">
@@ -8588,7 +8610,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="43">
+      <c r="A87" s="42">
         <v>2</v>
       </c>
       <c r="B87" s="20" t="s">
@@ -8629,7 +8651,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>2</v>
       </c>
       <c r="B88" s="20" t="s">
@@ -8670,7 +8692,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="43">
+      <c r="A89" s="42">
         <v>2</v>
       </c>
       <c r="B89" s="20" t="s">
@@ -8711,7 +8733,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="43">
+      <c r="A90" s="42">
         <v>2</v>
       </c>
       <c r="B90" s="20" t="s">
@@ -8752,7 +8774,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="43">
+      <c r="A91" s="42">
         <v>2</v>
       </c>
       <c r="B91" s="20" t="s">
@@ -8793,7 +8815,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="43">
+      <c r="A92" s="42">
         <v>2</v>
       </c>
       <c r="B92" s="20" t="s">
@@ -8834,7 +8856,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="44">
+      <c r="A93" s="43">
         <v>2</v>
       </c>
       <c r="B93" s="20" t="s">
@@ -8875,7 +8897,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="44">
+      <c r="A94" s="43">
         <v>2</v>
       </c>
       <c r="B94" s="20" t="s">
@@ -8916,7 +8938,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="40">
+      <c r="A95" s="39">
         <v>2</v>
       </c>
       <c r="B95" s="20" t="s">
@@ -8957,7 +8979,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="44">
+      <c r="A96" s="43">
         <v>2</v>
       </c>
       <c r="B96" s="20" t="s">
@@ -8998,7 +9020,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="44">
+      <c r="A97" s="43">
         <v>2</v>
       </c>
       <c r="B97" s="20" t="s">
@@ -9039,7 +9061,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="43">
+      <c r="A98" s="42">
         <v>2</v>
       </c>
       <c r="B98" s="20" t="s">
@@ -9080,7 +9102,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="39">
+      <c r="A99" s="38">
         <v>2</v>
       </c>
       <c r="B99" s="20" t="s">
@@ -9121,7 +9143,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="43">
+      <c r="A100" s="42">
         <v>2</v>
       </c>
       <c r="B100" s="20" t="s">
@@ -9162,7 +9184,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="22">
+      <c r="A101" s="42">
         <v>2</v>
       </c>
       <c r="B101" s="20" t="s">
@@ -9203,7 +9225,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="22">
+      <c r="A102" s="42">
         <v>2</v>
       </c>
       <c r="B102" s="20" t="s">
@@ -9244,7 +9266,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="22">
+      <c r="A103" s="42">
         <v>2</v>
       </c>
       <c r="B103" s="20" t="s">
@@ -9285,7 +9307,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="29">
+      <c r="A104" s="41">
         <v>2</v>
       </c>
       <c r="B104" s="20" t="s">
@@ -9326,7 +9348,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="29">
+      <c r="A105" s="41">
         <v>2</v>
       </c>
       <c r="B105" s="20" t="s">
@@ -9367,7 +9389,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="29">
+      <c r="A106" s="41">
         <v>2</v>
       </c>
       <c r="B106" s="20" t="s">
@@ -9408,7 +9430,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="29">
+      <c r="A107" s="40">
         <v>2</v>
       </c>
       <c r="B107" s="20" t="s">
@@ -9449,7 +9471,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="29">
+      <c r="A108" s="41">
         <v>2</v>
       </c>
       <c r="B108" s="20" t="s">
@@ -9490,7 +9512,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="29">
+      <c r="A109" s="41">
         <v>2</v>
       </c>
       <c r="B109" s="20" t="s">
@@ -9531,7 +9553,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="29">
+      <c r="A110" s="41">
         <v>2</v>
       </c>
       <c r="B110" s="20" t="s">
@@ -9572,7 +9594,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="29">
+      <c r="A111" s="41">
         <v>2</v>
       </c>
       <c r="B111" s="20" t="s">
@@ -9613,7 +9635,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="29">
+      <c r="A112" s="40">
         <v>2</v>
       </c>
       <c r="B112" s="20" t="s">
@@ -9654,7 +9676,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="29">
+      <c r="A113" s="41">
         <v>2</v>
       </c>
       <c r="B113" s="20" t="s">
@@ -9695,7 +9717,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="29">
+      <c r="A114" s="41">
         <v>2</v>
       </c>
       <c r="B114" s="20" t="s">
@@ -9736,7 +9758,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="29">
+      <c r="A115" s="44">
         <v>2</v>
       </c>
       <c r="B115" s="20" t="s">
@@ -9777,7 +9799,7 @@
       </c>
     </row>
     <row r="116" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="20">
+      <c r="A116" s="45">
         <v>5</v>
       </c>
       <c r="B116" s="20" t="s">
@@ -9818,7 +9840,7 @@
       </c>
     </row>
     <row r="117" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="20">
+      <c r="A117" s="46">
         <v>5</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -9859,7 +9881,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="20">
+      <c r="A118" s="46">
         <v>5</v>
       </c>
       <c r="B118" s="20" t="s">
@@ -9900,7 +9922,7 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="20">
+      <c r="A119" s="45">
         <v>5</v>
       </c>
       <c r="B119" s="20" t="s">
@@ -9941,7 +9963,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="20">
+      <c r="A120" s="45">
         <v>5</v>
       </c>
       <c r="B120" s="20" t="s">
@@ -9982,7 +10004,7 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="20">
+      <c r="A121" s="46">
         <v>5</v>
       </c>
       <c r="B121" s="20" t="s">
@@ -10023,7 +10045,7 @@
       </c>
     </row>
     <row r="122" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="29">
+      <c r="A122" s="41">
         <v>2</v>
       </c>
       <c r="B122" s="20" t="s">
@@ -10064,7 +10086,7 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="29">
+      <c r="A123" s="41">
         <v>2</v>
       </c>
       <c r="B123" s="20" t="s">
@@ -10105,7 +10127,7 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="29">
+      <c r="A124" s="41">
         <v>2</v>
       </c>
       <c r="B124" s="20" t="s">
@@ -10146,7 +10168,7 @@
       </c>
     </row>
     <row r="125" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="29">
+      <c r="A125" s="41">
         <v>2</v>
       </c>
       <c r="B125" s="20" t="s">
@@ -10187,7 +10209,7 @@
       </c>
     </row>
     <row r="126" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="29">
+      <c r="A126" s="41">
         <v>2</v>
       </c>
       <c r="B126" s="20" t="s">
@@ -10228,7 +10250,7 @@
       </c>
     </row>
     <row r="127" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="29">
+      <c r="A127" s="41">
         <v>2</v>
       </c>
       <c r="B127" s="20" t="s">
@@ -10269,7 +10291,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="29">
+      <c r="A128" s="41">
         <v>2</v>
       </c>
       <c r="B128" s="20" t="s">
@@ -10310,7 +10332,7 @@
       </c>
     </row>
     <row r="129" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="29">
+      <c r="A129" s="41">
         <v>2</v>
       </c>
       <c r="B129" s="20" t="s">
@@ -10351,7 +10373,7 @@
       </c>
     </row>
     <row r="130" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="29">
+      <c r="A130" s="40">
         <v>2</v>
       </c>
       <c r="B130" s="20" t="s">
@@ -10392,7 +10414,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="29">
+      <c r="A131" s="41">
         <v>2</v>
       </c>
       <c r="B131" s="20" t="s">
@@ -10433,7 +10455,7 @@
       </c>
     </row>
     <row r="132" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="29">
+      <c r="A132" s="40">
         <v>2</v>
       </c>
       <c r="B132" s="20" t="s">
@@ -10474,7 +10496,7 @@
       </c>
     </row>
     <row r="133" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="29">
+      <c r="A133" s="40">
         <v>2</v>
       </c>
       <c r="B133" s="20" t="s">
@@ -10515,7 +10537,7 @@
       </c>
     </row>
     <row r="134" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="29">
+      <c r="A134" s="41">
         <v>2</v>
       </c>
       <c r="B134" s="20" t="s">
@@ -10556,7 +10578,7 @@
       </c>
     </row>
     <row r="135" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="29">
+      <c r="A135" s="41">
         <v>2</v>
       </c>
       <c r="B135" s="20" t="s">
@@ -10597,7 +10619,7 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="33">
+      <c r="A136" s="47">
         <v>2</v>
       </c>
       <c r="B136" s="20" t="s">
@@ -10638,7 +10660,7 @@
       </c>
     </row>
     <row r="137" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="33">
+      <c r="A137" s="48">
         <v>2</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -10679,7 +10701,7 @@
       </c>
     </row>
     <row r="138" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="29">
+      <c r="A138" s="40">
         <v>2</v>
       </c>
       <c r="B138" s="20" t="s">
@@ -10720,7 +10742,7 @@
       </c>
     </row>
     <row r="139" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="30">
+      <c r="A139" s="39">
         <v>5</v>
       </c>
       <c r="B139" s="20" t="s">
@@ -10761,7 +10783,7 @@
       </c>
     </row>
     <row r="140" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="30">
+      <c r="A140" s="39">
         <v>5</v>
       </c>
       <c r="B140" s="20" t="s">
@@ -10802,7 +10824,7 @@
       </c>
     </row>
     <row r="141" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="30">
+      <c r="A141" s="43">
         <v>5</v>
       </c>
       <c r="B141" s="20" t="s">
@@ -10843,7 +10865,7 @@
       </c>
     </row>
     <row r="142" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="30">
+      <c r="A142" s="43">
         <v>5</v>
       </c>
       <c r="B142" s="20" t="s">
@@ -10884,7 +10906,7 @@
       </c>
     </row>
     <row r="143" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="30">
+      <c r="A143" s="43">
         <v>5</v>
       </c>
       <c r="B143" s="20" t="s">
@@ -10925,7 +10947,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="30">
+      <c r="A144" s="39">
         <v>5</v>
       </c>
       <c r="B144" s="20" t="s">
@@ -10966,7 +10988,7 @@
       </c>
     </row>
     <row r="145" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="30">
+      <c r="A145" s="43">
         <v>5</v>
       </c>
       <c r="B145" s="20" t="s">
@@ -11007,7 +11029,7 @@
       </c>
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="30">
+      <c r="A146" s="43">
         <v>5</v>
       </c>
       <c r="B146" s="20" t="s">
@@ -11048,7 +11070,7 @@
       </c>
     </row>
     <row r="147" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="30">
+      <c r="A147" s="43">
         <v>5</v>
       </c>
       <c r="B147" s="20" t="s">
@@ -11089,7 +11111,7 @@
       </c>
     </row>
     <row r="148" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="30">
+      <c r="A148" s="39">
         <v>5</v>
       </c>
       <c r="B148" s="20" t="s">
@@ -11130,7 +11152,7 @@
       </c>
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="30">
+      <c r="A149" s="43">
         <v>5</v>
       </c>
       <c r="B149" s="20" t="s">
@@ -11171,7 +11193,7 @@
       </c>
     </row>
     <row r="150" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="30">
+      <c r="A150" s="43">
         <v>5</v>
       </c>
       <c r="B150" s="20" t="s">
@@ -11212,7 +11234,7 @@
       </c>
     </row>
     <row r="151" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="30">
+      <c r="A151" s="43">
         <v>5</v>
       </c>
       <c r="B151" s="20" t="s">
@@ -11253,7 +11275,7 @@
       </c>
     </row>
     <row r="152" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="30">
+      <c r="A152" s="43">
         <v>5</v>
       </c>
       <c r="B152" s="20" t="s">
@@ -11294,7 +11316,7 @@
       </c>
     </row>
     <row r="153" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="30">
+      <c r="A153" s="43">
         <v>5</v>
       </c>
       <c r="B153" s="20" t="s">
@@ -11335,7 +11357,7 @@
       </c>
     </row>
     <row r="154" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="30">
+      <c r="A154" s="43">
         <v>5</v>
       </c>
       <c r="B154" s="20" t="s">
@@ -11376,7 +11398,7 @@
       </c>
     </row>
     <row r="155" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="30">
+      <c r="A155" s="39">
         <v>5</v>
       </c>
       <c r="B155" s="20" t="s">
@@ -11417,7 +11439,7 @@
       </c>
     </row>
     <row r="156" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="30">
+      <c r="A156" s="43">
         <v>5</v>
       </c>
       <c r="B156" s="16" t="s">
@@ -11458,7 +11480,7 @@
       </c>
     </row>
     <row r="157" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="30">
+      <c r="A157" s="43">
         <v>5</v>
       </c>
       <c r="B157" s="16" t="s">
@@ -11499,7 +11521,7 @@
       </c>
     </row>
     <row r="158" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="30">
+      <c r="A158" s="43">
         <v>5</v>
       </c>
       <c r="B158" s="16" t="s">
@@ -11540,7 +11562,7 @@
       </c>
     </row>
     <row r="159" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="30">
+      <c r="A159" s="43">
         <v>5</v>
       </c>
       <c r="B159" s="16" t="s">
@@ -11581,7 +11603,7 @@
       </c>
     </row>
     <row r="160" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="30">
+      <c r="A160" s="43">
         <v>5</v>
       </c>
       <c r="B160" s="16" t="s">
@@ -11622,7 +11644,7 @@
       </c>
     </row>
     <row r="161" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="30">
+      <c r="A161" s="43">
         <v>5</v>
       </c>
       <c r="B161" s="16" t="s">
@@ -11663,7 +11685,7 @@
       </c>
     </row>
     <row r="162" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="30">
+      <c r="A162" s="43">
         <v>5</v>
       </c>
       <c r="B162" s="16" t="s">
@@ -11704,7 +11726,7 @@
       </c>
     </row>
     <row r="163" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="30">
+      <c r="A163" s="43">
         <v>5</v>
       </c>
       <c r="B163" s="16" t="s">
@@ -11745,7 +11767,7 @@
       </c>
     </row>
     <row r="164" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="30">
+      <c r="A164" s="39">
         <v>5</v>
       </c>
       <c r="B164" s="16" t="s">
@@ -11786,7 +11808,7 @@
       </c>
     </row>
     <row r="165" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="30">
+      <c r="A165" s="43">
         <v>5</v>
       </c>
       <c r="B165" s="16" t="s">
@@ -11827,7 +11849,7 @@
       </c>
     </row>
     <row r="166" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="30">
+      <c r="A166" s="39">
         <v>5</v>
       </c>
       <c r="B166" s="16" t="s">
@@ -11868,7 +11890,7 @@
       </c>
     </row>
     <row r="167" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="30">
+      <c r="A167" s="43">
         <v>5</v>
       </c>
       <c r="B167" s="16" t="s">
@@ -11909,7 +11931,7 @@
       </c>
     </row>
     <row r="168" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="30">
+      <c r="A168" s="43">
         <v>5</v>
       </c>
       <c r="B168" s="16" t="s">
@@ -11950,7 +11972,7 @@
       </c>
     </row>
     <row r="169" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="30">
+      <c r="A169" s="43">
         <v>5</v>
       </c>
       <c r="B169" s="16" t="s">
@@ -11991,7 +12013,7 @@
       </c>
     </row>
     <row r="170" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="30">
+      <c r="A170" s="43">
         <v>5</v>
       </c>
       <c r="B170" s="16" t="s">
@@ -12032,7 +12054,7 @@
       </c>
     </row>
     <row r="171" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="30">
+      <c r="A171" s="39">
         <v>1</v>
       </c>
       <c r="B171" s="16" t="s">
@@ -12073,7 +12095,7 @@
       </c>
     </row>
     <row r="172" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="30">
+      <c r="A172" s="39">
         <v>5</v>
       </c>
       <c r="B172" s="16" t="s">
@@ -15207,7 +15229,7 @@
       <c r="F248" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G248" s="34" t="s">
+      <c r="G248" s="33" t="s">
         <v>25</v>
       </c>
       <c r="H248" s="18" t="s">
@@ -15248,7 +15270,7 @@
       <c r="F249" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G249" s="34" t="s">
+      <c r="G249" s="33" t="s">
         <v>25</v>
       </c>
       <c r="H249" s="18" t="s">
@@ -15289,7 +15311,7 @@
       <c r="F250" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G250" s="34" t="s">
+      <c r="G250" s="33" t="s">
         <v>25</v>
       </c>
       <c r="H250" s="18" t="s">
@@ -24291,7 +24313,7 @@
       </c>
     </row>
     <row r="470" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="37">
+      <c r="A470" s="36">
         <v>4</v>
       </c>
       <c r="B470" s="16" t="s">
